--- a/SCBAA/2019/Region 2.xlsx
+++ b/SCBAA/2019/Region 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8580A7CA-E6F5-44A2-BE18-0314DA71678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA271E2-209B-4B97-BC4C-B245F83983DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13935" yWindow="660" windowWidth="14340" windowHeight="12495" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuguegarao" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -902,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1549,9 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="27"/>
+      <c r="E60" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -2092,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA606D08-BDE7-4406-848C-A30A1828943E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A90" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SCBAA/2019/Region 2.xlsx
+++ b/SCBAA/2019/Region 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA271E2-209B-4B97-BC4C-B245F83983DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5905795A-AA51-4204-920D-CFF7C163F7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="3" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuguegarao" sheetId="1" r:id="rId1"/>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E119" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="35">
-        <f>2233160+5560620.18+12024470.29</f>
         <v>19818250.469999999</v>
       </c>
     </row>
@@ -1069,7 +1068,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>241028317.94</v>
       </c>
     </row>
@@ -1123,7 +1121,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>170291149.18000001</v>
       </c>
     </row>
@@ -1314,7 +1311,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1073920798.53</v>
       </c>
     </row>
@@ -1891,7 +1887,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>944487130.48000002</v>
       </c>
     </row>
@@ -2058,7 +2053,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="37">
-        <f>8804143.52+28630435.61+2065596.21+6817581.23</f>
         <v>46317756.569999993</v>
       </c>
     </row>
@@ -2067,7 +2061,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>143503494.39999998</v>
       </c>
     </row>
@@ -2079,7 +2072,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1087990624.8800001</v>
       </c>
     </row>
@@ -2101,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA606D08-BDE7-4406-848C-A30A1828943E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E90" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F100" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,7 +2251,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>203477288.75999999</v>
       </c>
     </row>
@@ -2313,7 +2304,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>53072986.130000003</v>
       </c>
     </row>
@@ -2504,7 +2494,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>978715540.88999999</v>
       </c>
     </row>
@@ -3061,7 +3050,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="42">
-        <f>650000+47656759.22+464962</f>
         <v>48771721.219999999</v>
       </c>
     </row>
@@ -3082,7 +3070,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>912340592.59000003</v>
       </c>
     </row>
@@ -3114,7 +3101,6 @@
         <v>12</v>
       </c>
       <c r="E96" s="42">
-        <f>8784425.47+2271500</f>
         <v>11055925.470000001</v>
       </c>
       <c r="F96" s="10"/>
@@ -3250,7 +3236,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="42">
-        <f>547675.17+11088041.8+44350959.09+1587261.85+306400</f>
         <v>57880337.910000004</v>
       </c>
     </row>
@@ -3259,7 +3244,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>216568920.88</v>
       </c>
     </row>
@@ -3271,7 +3255,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1128909513.47</v>
       </c>
     </row>
@@ -4483,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14384A89-C2A6-4D21-870C-45268DB3CA7C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E98" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,7 +4625,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>43812853.469999999</v>
       </c>
     </row>
@@ -4696,7 +4678,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>274760325.29000002</v>
       </c>
     </row>
@@ -4887,7 +4868,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1798194199.7</v>
       </c>
     </row>
@@ -5464,7 +5444,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1668596615.01</v>
       </c>
     </row>
@@ -5631,7 +5610,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="40">
-        <f>23066558.57+5463420</f>
         <v>28529978.57</v>
       </c>
     </row>
@@ -5640,7 +5618,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>52054577.119999997</v>
       </c>
     </row>
@@ -5652,7 +5629,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1720651192.1299999</v>
       </c>
     </row>
